--- a/config_multi.xls/activity.xlsx
+++ b/config_multi.xls/activity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9705"/>
+    <workbookView windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="activity" sheetId="1" r:id="rId1"/>
@@ -169,9 +169,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -190,46 +190,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,26 +265,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,16 +295,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,27 +312,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -317,19 +326,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,19 +354,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,13 +498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,145 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,17 +548,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,44 +570,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +603,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -653,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,7 +1196,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1213,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1230,7 +1230,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -1315,7 +1315,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
@@ -1332,7 +1332,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>

--- a/config_multi.xls/activity.xlsx
+++ b/config_multi.xls/activity.xlsx
@@ -116,7 +116,7 @@
     <t>klb_hall_daily_active_HB</t>
   </si>
   <si>
-    <t>7日签到</t>
+    <t>Sevenday</t>
   </si>
   <si>
     <t>klb_hall_daily_active_QD</t>
@@ -169,18 +169,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -190,6 +196,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -198,12 +212,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
@@ -211,8 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,30 +265,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,28 +280,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -287,38 +287,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -354,187 +360,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,17 +580,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,20 +628,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,21 +651,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -653,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,144 +671,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,7 +1165,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1202,18 +1211,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1300,7 +1309,7 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
